--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ali Files\PLP ACADEMY\DATABASE\Week15and16\Week15DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739C7A8-7C47-4F8C-8333-34422E98E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804B104-FD1A-4CC3-9C41-7A4505CFB670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BF3DBA85-1571-4DFF-A48A-9FB9E6E369EC}"/>
   </bookViews>
@@ -289,6 +289,24 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -305,24 +323,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,6 +648,11 @@
                 <a:bevelT w="127000" h="38200" prst="relaxedInset"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FF13-4EA1-A845-0DD0905D17D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -937,7 +942,9 @@
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3215,7 +3222,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{257074DD-2FAF-42DE-8B90-A61525F8C8F5}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{257074DD-2FAF-42DE-8B90-A61525F8C8F5}" name="Table4" displayName="Table4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:G5" xr:uid="{257074DD-2FAF-42DE-8B90-A61525F8C8F5}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F07D40AC-2951-437C-BD2C-0763FD399C84}" name="Column1"/>
@@ -3223,7 +3230,7 @@
     <tableColumn id="3" xr3:uid="{624D3454-70DE-40AC-BC26-138787815B73}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{47777FA9-2262-4965-A479-DD835DC591A7}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{D3AB880D-055C-4631-B5AF-F740053DBD04}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{44871364-2EA9-4F0A-8A18-155C9E83B981}" name="Column6" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{44871364-2EA9-4F0A-8A18-155C9E83B981}" name="Column6" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{20F82D21-9978-4292-9C47-10DD0A4297AB}" name="Column7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3234,8 +3241,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7CFFAA02-0F6E-4741-854C-054272A9FD4A}" name="Dorected_by_ToshiyaShinohara" displayName="Dorected_by_ToshiyaShinohara" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C5" xr:uid="{7CFFAA02-0F6E-4741-854C-054272A9FD4A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{25F6F952-AAD1-4268-8861-FD81EBA7287E}" uniqueName="1" name="type" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{930F823B-A6F3-410E-A440-7B44158E0DA7}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{25F6F952-AAD1-4268-8861-FD81EBA7287E}" uniqueName="1" name="type" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{930F823B-A6F3-410E-A440-7B44158E0DA7}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{580DA181-027C-4185-A26D-7CEB47A5331D}" uniqueName="3" name="Movies_directed_by_Toshiya_Shinohara" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3246,10 +3253,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{470353AF-27A9-46C3-827A-96AF3BD970DD}" name="Movies_rated_TV_MA" displayName="Movies_rated_TV_MA" ref="A1:D13" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D13" xr:uid="{470353AF-27A9-46C3-827A-96AF3BD970DD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B982F23E-CC30-4936-99E2-8941CDFFD1BE}" uniqueName="1" name="title" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BB58F1B7-F098-48D8-852B-B7A8EC7A68CC}" uniqueName="2" name="director" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B982F23E-CC30-4936-99E2-8941CDFFD1BE}" uniqueName="1" name="title" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BB58F1B7-F098-48D8-852B-B7A8EC7A68CC}" uniqueName="2" name="director" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{F33F56C8-7DDA-4FE7-A45C-3E0EA331F27C}" uniqueName="3" name="release_year" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4053EFB0-2907-4BE6-9ADD-9BEF49634CB6}" uniqueName="4" name="rating" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4053EFB0-2907-4BE6-9ADD-9BEF49634CB6}" uniqueName="4" name="rating" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3595,7 +3602,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF5A4F-20F8-4FC3-A01D-B73562E44A69}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
